--- a/SAF_Estudo final.xlsx
+++ b/SAF_Estudo final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorc\Documents\GitProjetos\AGROFV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF87F45-3AF2-426A-94BB-C80F5ACC9A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA069B-72A7-47BB-A1FE-0F833018FE51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Dia_Juliano</t>
   </si>
@@ -271,12 +271,21 @@
   <si>
     <t>Fator de capacidade (%)</t>
   </si>
+  <si>
+    <t>Dias com interrupções</t>
+  </si>
+  <si>
+    <t>Dias sem interrupções</t>
+  </si>
+  <si>
+    <t>Dias sem geração</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +312,13 @@
     <font>
       <b/>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -354,10 +370,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,10 +397,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7267,51 +7287,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE381F-A64E-4A77-B761-4733C6AC8E04}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>44835</v>
       </c>
       <c r="B2" s="2">
@@ -7326,7 +7358,7 @@
         <v>9882.6</v>
       </c>
       <c r="E2" s="2">
-        <f>D2/$B$21</f>
+        <f t="shared" ref="E2:E8" si="0">D2/$B$21</f>
         <v>140.47761194029849</v>
       </c>
       <c r="F2" s="2">
@@ -7337,13 +7369,22 @@
         <f>D2/($B$21*(24*31))</f>
         <v>0.18881399454341194</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
         <f>E2/F2</f>
         <v>0.76743772821013623</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>44866</v>
       </c>
       <c r="B3" s="2">
@@ -7351,31 +7392,40 @@
         <v>171.43549084923526</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C13" si="0">B3*$B$20</f>
+        <f t="shared" ref="C3:C13" si="1">B3*$B$20</f>
         <v>63709.78423252733</v>
       </c>
       <c r="D3">
         <v>9481</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/$B$21</f>
+        <f t="shared" si="0"/>
         <v>134.7690120824449</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F13" si="1">B3/1</f>
+        <f t="shared" ref="F3:F13" si="2">B3/1</f>
         <v>171.43549084923526</v>
       </c>
       <c r="G3" s="16">
         <f>D3/($B$21*(24*30))</f>
         <v>0.18717918344784013</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="2">E3/F3</f>
+      <c r="H3" s="16">
+        <f t="shared" ref="H3:H13" si="3">E3/F3</f>
         <v>0.78612084005968286</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>44896</v>
       </c>
       <c r="B4" s="2">
@@ -7383,31 +7433,40 @@
         <v>188.82980785481257</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70173.954386606332</v>
       </c>
       <c r="D4">
         <v>10187.9</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/$B$21</f>
+        <f t="shared" si="0"/>
         <v>144.81734186211796</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188.82980785481257</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G3:G13" si="3">D4/($B$21*(24*31))</f>
+        <f t="shared" ref="G4:G11" si="4">D4/($B$21*(24*31))</f>
         <v>0.1946469648684381</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
+      <c r="H4" s="16">
+        <f t="shared" si="3"/>
         <v>0.76691992385791696</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>44927</v>
       </c>
       <c r="B5" s="2">
@@ -7415,31 +7474,40 @@
         <v>186.30746214999982</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69236.586634938256</v>
       </c>
       <c r="D5">
         <v>8744.5</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/$B$21</f>
+        <f t="shared" si="0"/>
         <v>124.29992892679458</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186.30746214999982</v>
       </c>
       <c r="G5" s="16">
+        <f t="shared" si="4"/>
+        <v>0.16706979694461638</v>
+      </c>
+      <c r="H5" s="16">
         <f t="shared" si="3"/>
-        <v>0.16706979694461638</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
         <v>0.66717633041836111</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>44958</v>
       </c>
       <c r="B6" s="2">
@@ -7447,31 +7515,40 @@
         <v>150.25488893333323</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55838.534403844656</v>
       </c>
       <c r="D6">
         <v>8055.5</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/$B$21</f>
+        <f t="shared" si="0"/>
         <v>114.50604122245912</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.25488893333323</v>
       </c>
       <c r="G6" s="16">
         <f>D6/($B$21*(24*28))</f>
         <v>0.17039589467627844</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
+      <c r="H6" s="16">
+        <f t="shared" si="3"/>
         <v>0.76207863874076298</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>44986</v>
       </c>
       <c r="B7" s="2">
@@ -7479,31 +7556,40 @@
         <v>161.74506135833323</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60108.574419275632</v>
       </c>
       <c r="D7">
         <v>9001.5</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/$B$21</f>
+        <f t="shared" si="0"/>
         <v>127.95309168443495</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161.74506135833323</v>
       </c>
       <c r="G7" s="16">
         <f>D7/($B$21*(24*31))</f>
         <v>0.17197996194144483</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="H7" s="16">
+        <f t="shared" si="3"/>
         <v>0.79107881631677845</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>45017</v>
       </c>
       <c r="B8" s="2">
@@ -7511,31 +7597,40 @@
         <v>154.26365726666654</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57328.294571297127</v>
       </c>
       <c r="D8">
         <v>7356</v>
       </c>
       <c r="E8" s="2">
-        <f>D8/$B$21</f>
+        <f t="shared" si="0"/>
         <v>104.56289978678038</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.26365726666654</v>
       </c>
       <c r="G8" s="16">
         <f>D8/($B$21*(24*30))</f>
         <v>0.14522624970386161</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
+      <c r="H8" s="16">
+        <f t="shared" si="3"/>
         <v>0.67781940114403372</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>45047</v>
       </c>
       <c r="B9" s="2">
@@ -7543,31 +7638,40 @@
         <v>146.36008349166653</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54391.125742504642</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1546.8</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E13" si="4">D9/$B$21</f>
-        <v>0</v>
+        <f t="shared" ref="E9:E13" si="5">D9/$B$21</f>
+        <v>21.987206823027716</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>146.36008349166653</v>
       </c>
       <c r="G9" s="16">
         <f>D9/($B$21*(24*31))</f>
+        <v>2.9552697342779186E-2</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15022679885448156</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
+      <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="K9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>45078</v>
       </c>
       <c r="B10" s="2">
@@ -7575,31 +7679,40 @@
         <v>119.29126767499992</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44331.66602055906</v>
       </c>
       <c r="D10">
         <v>6452.4</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.718550106609797</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.29126767499992</v>
       </c>
       <c r="G10" s="16">
         <f>D10/($B$21*(24*30))</f>
         <v>0.12738687514806915</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
+      <c r="H10" s="16">
+        <f t="shared" si="3"/>
         <v>0.76886223018846678</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>45108</v>
       </c>
       <c r="B11" s="2">
@@ -7607,31 +7720,40 @@
         <v>137.0277508499999</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50922.993816953567</v>
       </c>
       <c r="D11">
         <v>8162.1</v>
       </c>
       <c r="E11" s="2">
+        <f t="shared" si="5"/>
+        <v>116.02132196162046</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>137.0277508499999</v>
+      </c>
+      <c r="G11" s="16">
         <f t="shared" si="4"/>
-        <v>116.02132196162046</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>137.0277508499999</v>
-      </c>
-      <c r="G11" s="16">
+        <v>0.15594263704518879</v>
+      </c>
+      <c r="H11" s="16">
         <f t="shared" si="3"/>
-        <v>0.15594263704518879</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
         <v>0.84669945497846966</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>45139</v>
       </c>
       <c r="B12" s="2">
@@ -7639,31 +7761,31 @@
         <v>155.30792533333326</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57716.371117633513</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8753.9</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>124.43354655294952</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155.30792533333326</v>
       </c>
       <c r="G12" s="16">
         <f>D12/($B$21*(24*31))</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+        <v>0.16724939052815796</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="3"/>
+        <v>0.80120538785049844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>45170</v>
       </c>
       <c r="B13" s="2">
@@ -7671,33 +7793,33 @@
         <v>152.29600091666654</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56597.063477424585</v>
       </c>
       <c r="D13">
         <v>4825</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.58564321250887</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152.29600091666654</v>
       </c>
       <c r="G13" s="16">
         <f>D13/($B$21*(24*30))</f>
         <v>9.5257837795151221E-2</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
+      <c r="H13" s="16">
+        <f t="shared" si="3"/>
         <v>0.45034434784691174</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -7710,7 +7832,7 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>

--- a/SAF_Estudo final.xlsx
+++ b/SAF_Estudo final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorc\Documents\GitProjetos\AGROFV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i5\Documents\GitProjetos\AGROFV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA069B-72A7-47BB-A1FE-0F833018FE51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="5" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="somas_irradiacao_dia_juliano_1" localSheetId="2">'2023'!$A$64:$C$150</definedName>
     <definedName name="somas_irradiacao_dia_juliano_2" localSheetId="2">'2023'!$A$155:$C$293</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="somas_irradiacao_dia_juliano" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="somas_irradiacao_dia_juliano" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -44,7 +43,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="somas_irradiacao_dia_juliano_11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" name="somas_irradiacao_dia_juliano_11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano_1.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -53,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="somas_irradiacao_dia_juliano11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="somas_irradiacao_dia_juliano11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -62,7 +61,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="somas_irradiacao_dia_juliano21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="4" name="somas_irradiacao_dia_juliano21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -71,7 +70,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="somas_irradiacao_dia_juliano3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="5" name="somas_irradiacao_dia_juliano3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -284,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -394,12 +393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +419,579 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energia gerada (kWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9882.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10187.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8744.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8055.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9001.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1546.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6452.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8162.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8753.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1501961056"/>
+        <c:axId val="-1501967584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1501961056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1501967584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1501967584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1501961056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.76743772821013623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78612084005968286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76691992385791696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66717633041836111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76207863874076298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79107881631677845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67781940114403372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15022679885448156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76886223018846678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84669945497846966</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80120538785049844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45034434784691174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1501956160"/>
+        <c:axId val="-1501959968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1501956160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1501959968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1501959968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1501956160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -797,7 +1369,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CAD-45ED-BF64-95483207E91A}"/>
             </c:ext>
@@ -1098,7 +1670,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CAD-45ED-BF64-95483207E91A}"/>
             </c:ext>
@@ -1127,11 +1699,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="144858432"/>
-        <c:axId val="144853152"/>
+        <c:axId val="-1501957248"/>
+        <c:axId val="-1501966496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144858432"/>
+        <c:axId val="-1501957248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1800,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144853152"/>
+        <c:crossAx val="-1501966496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144853152"/>
+        <c:axId val="-1501966496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.5"/>
@@ -1351,7 +1923,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144858432"/>
+        <c:crossAx val="-1501957248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1365,14 +1937,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1407,8 +1979,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2020,7 +2592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7652-4CDE-A25B-FC495EBA1889}"/>
             </c:ext>
@@ -2034,11 +2606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="677534496"/>
-        <c:axId val="677542656"/>
+        <c:axId val="-1501963232"/>
+        <c:axId val="-1501961600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="677534496"/>
+        <c:axId val="-1501963232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2096,12 +2668,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677542656"/>
+        <c:crossAx val="-1501961600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677542656"/>
+        <c:axId val="-1501961600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2159,7 +2731,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677534496"/>
+        <c:crossAx val="-1501963232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2173,14 +2745,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2215,8 +2787,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2400,7 +2972,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC38-4EE3-A7D2-B83C75A5FA01}"/>
             </c:ext>
@@ -2414,11 +2986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="677510976"/>
-        <c:axId val="677500896"/>
+        <c:axId val="-1501962144"/>
+        <c:axId val="-1501959424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="677510976"/>
+        <c:axId val="-1501962144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -2462,12 +3034,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677500896"/>
+        <c:crossAx val="-1501959424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677500896"/>
+        <c:axId val="-1501959424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -2511,7 +3083,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677510976"/>
+        <c:crossAx val="-1501962144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2525,14 +3097,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2567,8 +3139,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3515,7 +4087,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-97C3-44AA-BCC5-372EF6E9859B}"/>
             </c:ext>
@@ -4419,7 +4991,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-97C3-44AA-BCC5-372EF6E9859B}"/>
             </c:ext>
@@ -4434,11 +5006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="677512416"/>
-        <c:axId val="677490336"/>
+        <c:axId val="-1501956704"/>
+        <c:axId val="-1501954528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="677512416"/>
+        <c:axId val="-1501956704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +5052,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677490336"/>
+        <c:crossAx val="-1501954528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4488,7 +5060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="677490336"/>
+        <c:axId val="-1501954528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,7 +5111,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677512416"/>
+        <c:crossAx val="-1501956704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4584,14 +5156,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4786,7 +5358,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5302,7 +6960,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5818,7 +7476,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6334,7 +7992,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6854,6 +8512,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1682750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170391</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1682748</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1291165</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -6870,7 +8593,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7F740-EDC3-DBCC-57B6-1140A35EF69F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7F740-EDC3-DBCC-57B6-1140A35EF69F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6906,7 +8629,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9213AD-C576-BF3A-0F94-94BCDF986BA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9213AD-C576-BF3A-0F94-94BCDF986BA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6942,7 +8665,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37DC8FF-CCEB-1100-DAE8-1E7F647140CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37DC8FF-CCEB-1100-DAE8-1E7F647140CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6963,7 +8686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6983,7 +8706,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1863C5-A76E-AF96-D5B3-53C7DB8788D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1863C5-A76E-AF96-D5B3-53C7DB8788D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7005,23 +8728,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano_1" connectionId="5" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano_2" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7286,11 +9009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE381F-A64E-4A77-B761-4733C6AC8E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7311,25 +9034,25 @@
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I1" t="s">
@@ -7365,19 +9088,19 @@
         <f>B2/1</f>
         <v>183.04757086666655</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="19">
         <f>D2/($B$21*(24*31))</f>
         <v>0.18881399454341194</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>E2/F2</f>
         <v>0.76743772821013623</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -7406,19 +9129,19 @@
         <f t="shared" ref="F3:F13" si="2">B3/1</f>
         <v>171.43549084923526</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="19">
         <f>D3/($B$21*(24*30))</f>
         <v>0.18717918344784013</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H13" si="3">E3/F3</f>
         <v>0.78612084005968286</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7447,19 +9170,19 @@
         <f t="shared" si="2"/>
         <v>188.82980785481257</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G11" si="4">D4/($B$21*(24*31))</f>
         <v>0.1946469648684381</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="3"/>
         <v>0.76691992385791696</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7488,22 +9211,22 @@
         <f t="shared" si="2"/>
         <v>186.30746214999982</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="19">
         <f t="shared" si="4"/>
         <v>0.16706979694461638</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="3"/>
         <v>0.66717633041836111</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,22 +9252,22 @@
         <f t="shared" si="2"/>
         <v>150.25488893333323</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="19">
         <f>D6/($B$21*(24*28))</f>
         <v>0.17039589467627844</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="3"/>
         <v>0.76207863874076298</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7570,19 +9293,19 @@
         <f t="shared" si="2"/>
         <v>161.74506135833323</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="19">
         <f>D7/($B$21*(24*31))</f>
         <v>0.17197996194144483</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="3"/>
         <v>0.79107881631677845</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7611,19 +9334,13 @@
         <f t="shared" si="2"/>
         <v>154.26365726666654</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="19">
         <f>D8/($B$21*(24*30))</f>
         <v>0.14522624970386161</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="3"/>
         <v>0.67781940114403372</v>
-      </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7652,11 +9369,11 @@
         <f t="shared" si="2"/>
         <v>146.36008349166653</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="19">
         <f>D9/($B$21*(24*31))</f>
         <v>2.9552697342779186E-2</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="3"/>
         <v>0.15022679885448156</v>
       </c>
@@ -7664,10 +9381,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7693,22 +9410,22 @@
         <f t="shared" si="2"/>
         <v>119.29126767499992</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="19">
         <f>D10/($B$21*(24*30))</f>
         <v>0.12738687514806915</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" si="3"/>
         <v>0.76886223018846678</v>
       </c>
       <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="K10">
         <v>0</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7734,19 +9451,19 @@
         <f t="shared" si="2"/>
         <v>137.0277508499999</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="19">
         <f t="shared" si="4"/>
         <v>0.15594263704518879</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="3"/>
         <v>0.84669945497846966</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7775,11 +9492,11 @@
         <f t="shared" si="2"/>
         <v>155.30792533333326</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="19">
         <f>D12/($B$21*(24*31))</f>
         <v>0.16724939052815796</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f t="shared" si="3"/>
         <v>0.80120538785049844</v>
       </c>
@@ -7807,11 +9524,11 @@
         <f t="shared" si="2"/>
         <v>152.29600091666654</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="19">
         <f>D13/($B$21*(24*30))</f>
         <v>9.5257837795151221E-2</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f t="shared" si="3"/>
         <v>0.45034434784691174</v>
       </c>
@@ -7827,10 +9544,10 @@
         <f>335/1000</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -7915,14 +9632,15 @@
     <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10288,7 +12006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView topLeftCell="A284" workbookViewId="0">

--- a/SAF_Estudo final.xlsx
+++ b/SAF_Estudo final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i5\Documents\GitProjetos\AGROFV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e320fdba386302d1/Documentos/AGROFV-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B9A2F7B24AA7A9A3D5AC25F4D0208B106DE35196" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BDB55F-A541-4089-BFF8-9577EE5181B5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="5" r:id="rId1"/>
@@ -23,18 +24,29 @@
     <definedName name="somas_irradiacao_dia_juliano_1" localSheetId="2">'2023'!$A$64:$E$150</definedName>
     <definedName name="somas_irradiacao_dia_juliano_2" localSheetId="2">'2023'!$A$155:$E$293</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="somas_irradiacao_dia_juliano" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="somas_irradiacao_dia_juliano" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -43,7 +55,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="somas_irradiacao_dia_juliano_11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="somas_irradiacao_dia_juliano_11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano_1.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -52,7 +64,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="somas_irradiacao_dia_juliano11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="somas_irradiacao_dia_juliano11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -61,7 +73,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="somas_irradiacao_dia_juliano21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="somas_irradiacao_dia_juliano21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -70,7 +82,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="somas_irradiacao_dia_juliano3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="somas_irradiacao_dia_juliano3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="C:\Users\i5\Documents\GitProjetos\AGROFV\somas_irradiacao_dia_juliano.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -295,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -394,9 +406,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -406,7 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,7 +442,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -445,7 +456,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -551,6 +561,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E3D-4D4A-B856-25E3DEC1707D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -717,7 +732,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -731,7 +746,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -837,6 +851,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BC9-42F0-9F1D-1EFBA320348B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1003,7 +1022,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1381,7 +1400,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CAD-45ED-BF64-95483207E91A}"/>
             </c:ext>
@@ -1682,7 +1701,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CAD-45ED-BF64-95483207E91A}"/>
             </c:ext>
@@ -1949,14 +1968,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1992,7 +2011,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2604,7 +2623,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7652-4CDE-A25B-FC495EBA1889}"/>
             </c:ext>
@@ -2757,14 +2776,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2800,7 +2819,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2984,7 +3003,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC38-4EE3-A7D2-B83C75A5FA01}"/>
             </c:ext>
@@ -3109,14 +3128,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3152,7 +3171,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4099,7 +4118,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-97C3-44AA-BCC5-372EF6E9859B}"/>
             </c:ext>
@@ -5003,7 +5022,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-97C3-44AA-BCC5-372EF6E9859B}"/>
             </c:ext>
@@ -5168,14 +5187,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8537,7 +8556,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8567,7 +8592,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8605,7 +8636,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7F740-EDC3-DBCC-57B6-1140A35EF69F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7F740-EDC3-DBCC-57B6-1140A35EF69F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8641,7 +8672,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9213AD-C576-BF3A-0F94-94BCDF986BA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9213AD-C576-BF3A-0F94-94BCDF986BA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8677,7 +8708,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37DC8FF-CCEB-1100-DAE8-1E7F647140CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37DC8FF-CCEB-1100-DAE8-1E7F647140CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8718,7 +8749,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1863C5-A76E-AF96-D5B3-53C7DB8788D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1863C5-A76E-AF96-D5B3-53C7DB8788D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8740,23 +8771,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano_1" connectionId="5" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano_2" connectionId="4" xr16:uid="{00000000-0016-0000-0200-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="somas_irradiacao_dia_juliano_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="somas_irradiacao_dia_juliano_1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9021,57 +9052,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K1" t="s">
@@ -9084,7 +9115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>44835</v>
       </c>
@@ -9115,7 +9146,7 @@
         <f>B2/1</f>
         <v>183.04757086666655</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <f>F2/($B$21*(24*31))</f>
         <v>0.18881399454341194</v>
       </c>
@@ -9133,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>44866</v>
       </c>
@@ -9164,7 +9195,7 @@
         <f t="shared" ref="H3:H13" si="2">B3/1</f>
         <v>171.43549084923526</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <f>F3/($B$21*(24*30))</f>
         <v>0.18717918344784013</v>
       </c>
@@ -9182,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>44896</v>
       </c>
@@ -9213,7 +9244,7 @@
         <f t="shared" si="2"/>
         <v>188.82980785481257</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <f t="shared" ref="I4:I11" si="4">F4/($B$21*(24*31))</f>
         <v>0.1946469648684381</v>
       </c>
@@ -9231,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44927</v>
       </c>
@@ -9262,7 +9293,7 @@
         <f t="shared" si="2"/>
         <v>186.30746214999982</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f t="shared" si="4"/>
         <v>0.16706979694461638</v>
       </c>
@@ -9280,7 +9311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>44958</v>
       </c>
@@ -9311,7 +9342,7 @@
         <f t="shared" si="2"/>
         <v>150.25488893333323</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <f>F6/($B$21*(24*28))</f>
         <v>0.17039589467627844</v>
       </c>
@@ -9329,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>44986</v>
       </c>
@@ -9360,7 +9391,7 @@
         <f t="shared" si="2"/>
         <v>161.74506135833323</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f>F7/($B$21*(24*31))</f>
         <v>0.17197996194144483</v>
       </c>
@@ -9378,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>45017</v>
       </c>
@@ -9409,7 +9440,7 @@
         <f t="shared" si="2"/>
         <v>154.26365726666654</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f>F8/($B$21*(24*30))</f>
         <v>0.14522624970386161</v>
       </c>
@@ -9421,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>45047</v>
       </c>
@@ -9452,7 +9483,7 @@
         <f t="shared" si="2"/>
         <v>146.36008349166653</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <f>F9/($B$21*(24*31))</f>
         <v>2.9552697342779186E-2</v>
       </c>
@@ -9470,7 +9501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>45078</v>
       </c>
@@ -9501,7 +9532,7 @@
         <f t="shared" si="2"/>
         <v>119.29126767499992</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f>F10/($B$21*(24*30))</f>
         <v>0.12738687514806915</v>
       </c>
@@ -9519,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>45108</v>
       </c>
@@ -9550,7 +9581,7 @@
         <f t="shared" si="2"/>
         <v>137.0277508499999</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f t="shared" si="4"/>
         <v>0.15594263704518879</v>
       </c>
@@ -9568,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>45139</v>
       </c>
@@ -9599,7 +9630,7 @@
         <f t="shared" si="2"/>
         <v>155.30792533333326</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f>F12/($B$21*(24*31))</f>
         <v>0.16724939052815796</v>
       </c>
@@ -9608,7 +9639,7 @@
         <v>0.80120538785049844</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>45170</v>
       </c>
@@ -9639,7 +9670,7 @@
         <f t="shared" si="2"/>
         <v>152.29600091666654</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f>F13/($B$21*(24*30))</f>
         <v>9.5257837795151221E-2</v>
       </c>
@@ -9648,10 +9679,10 @@
         <v>0.45034434784691174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -9659,14 +9690,14 @@
         <f>335/1000</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -9683,7 +9714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
@@ -9700,7 +9731,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -9716,7 +9747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
@@ -9734,7 +9765,7 @@
         <v>7.8400000000000011E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -9743,7 +9774,7 @@
         <v>371.62540800000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
@@ -9762,31 +9793,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9812,7 +9843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>273</v>
       </c>
@@ -9844,7 +9875,7 @@
         <v>5.154689864063576E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>274</v>
       </c>
@@ -9876,7 +9907,7 @@
         <v>3.8229723748710587E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>275</v>
       </c>
@@ -9908,7 +9939,7 @@
         <v>6.0087320952210248E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>276</v>
       </c>
@@ -9940,7 +9971,7 @@
         <v>4.9922374985700832E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>277</v>
       </c>
@@ -9962,7 +9993,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>278</v>
       </c>
@@ -9984,7 +10015,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>279</v>
       </c>
@@ -10006,7 +10037,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>280</v>
       </c>
@@ -10038,7 +10069,7 @@
         <v>1.3859000695597985E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>281</v>
       </c>
@@ -10070,7 +10101,7 @@
         <v>3.8439028362002373E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>282</v>
       </c>
@@ -10102,7 +10133,7 @@
         <v>2.2704288976097839E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>283</v>
       </c>
@@ -10134,7 +10165,7 @@
         <v>3.3901773227306205E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>284</v>
       </c>
@@ -10166,7 +10197,7 @@
         <v>3.0488141540479389E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>285</v>
       </c>
@@ -10198,7 +10229,7 @@
         <v>2.1261967205900349E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>286</v>
       </c>
@@ -10230,7 +10261,7 @@
         <v>1.8466164305034463E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>287</v>
       </c>
@@ -10262,7 +10293,7 @@
         <v>3.1414899843525912E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>288</v>
       </c>
@@ -10294,7 +10325,7 @@
         <v>1.9529421858816322E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>289</v>
       </c>
@@ -10326,7 +10357,7 @@
         <v>5.9577549157574496E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>290</v>
       </c>
@@ -10358,7 +10389,7 @@
         <v>4.8589213231559451E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>291</v>
       </c>
@@ -10390,7 +10421,7 @@
         <v>2.7614925370465677E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>292</v>
       </c>
@@ -10422,7 +10453,7 @@
         <v>3.4290147967166104E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>293</v>
       </c>
@@ -10454,7 +10485,7 @@
         <v>1.780836935293784E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>294</v>
       </c>
@@ -10486,7 +10517,7 @@
         <v>2.9351576859702237E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>295</v>
       </c>
@@ -10518,7 +10549,7 @@
         <v>4.7565880916580192E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>296</v>
       </c>
@@ -10550,7 +10581,7 @@
         <v>2.8925284562162767E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>297</v>
       </c>
@@ -10582,7 +10613,7 @@
         <v>2.0984720755545354E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>298</v>
       </c>
@@ -10614,7 +10645,7 @@
         <v>1.8051985282630735E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>299</v>
       </c>
@@ -10646,7 +10677,7 @@
         <v>8.6823919494956169E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>300</v>
       </c>
@@ -10678,7 +10709,7 @@
         <v>2.0151400138522284E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>301</v>
       </c>
@@ -10710,7 +10741,7 @@
         <v>1.4785097595982361E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>302</v>
       </c>
@@ -10742,7 +10773,7 @@
         <v>1.9601796283195822E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>303</v>
       </c>
@@ -10774,7 +10805,7 @@
         <v>1.1955953526380557E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>304</v>
       </c>
@@ -10806,7 +10837,7 @@
         <v>9.1418175917315336E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>305</v>
       </c>
@@ -10838,7 +10869,7 @@
         <v>1.3921925932542075E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>306</v>
       </c>
@@ -10870,7 +10901,7 @@
         <v>1.4060957896869635E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>307</v>
       </c>
@@ -10902,7 +10933,7 @@
         <v>2.2073844257087513E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>308</v>
       </c>
@@ -10934,7 +10965,7 @@
         <v>1.0294354443664803E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>309</v>
       </c>
@@ -10966,7 +10997,7 @@
         <v>1.9406196191312404E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>310</v>
       </c>
@@ -10998,7 +11029,7 @@
         <v>2.1874011596674986E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>311</v>
       </c>
@@ -11030,7 +11061,7 @@
         <v>2.9846640235936975E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>312</v>
       </c>
@@ -11062,7 +11093,7 @@
         <v>1.3043400544966621E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>313</v>
       </c>
@@ -11094,7 +11125,7 @@
         <v>1.9896444801925855E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>314</v>
       </c>
@@ -11126,7 +11157,7 @@
         <v>1.0517434659557283E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>315</v>
       </c>
@@ -11158,7 +11189,7 @@
         <v>1.8559178748505427E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>316</v>
       </c>
@@ -11190,7 +11221,7 @@
         <v>3.7658635291385432E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>317</v>
       </c>
@@ -11222,7 +11253,7 @@
         <v>5.2901642122129304E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>318</v>
       </c>
@@ -11254,7 +11285,7 @@
         <v>1.3496772515682516E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>319</v>
       </c>
@@ -11286,7 +11317,7 @@
         <v>3.3322001782353283E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>320</v>
       </c>
@@ -11318,7 +11349,7 @@
         <v>7.2242599863277471E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>321</v>
       </c>
@@ -11350,7 +11381,7 @@
         <v>2.2379405939020412E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>322</v>
       </c>
@@ -11382,7 +11413,7 @@
         <v>2.1858311148478329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>323</v>
       </c>
@@ -11414,7 +11445,7 @@
         <v>1.9084821428571708E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>324</v>
       </c>
@@ -11436,7 +11467,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>325</v>
       </c>
@@ -11458,7 +11489,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>326</v>
       </c>
@@ -11480,7 +11511,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>327</v>
       </c>
@@ -11502,7 +11533,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>328</v>
       </c>
@@ -11524,7 +11555,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>329</v>
       </c>
@@ -11546,7 +11577,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>330</v>
       </c>
@@ -11568,7 +11599,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>331</v>
       </c>
@@ -11590,7 +11621,7 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>332</v>
       </c>
@@ -11612,7 +11643,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>333</v>
       </c>
@@ -11634,7 +11665,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>334</v>
       </c>
@@ -11656,7 +11687,7 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>335</v>
       </c>
@@ -11678,7 +11709,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>336</v>
       </c>
@@ -11700,7 +11731,7 @@
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>337</v>
       </c>
@@ -11732,7 +11763,7 @@
         <v>2.2454705558864387E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>338</v>
       </c>
@@ -11764,7 +11795,7 @@
         <v>1.5174534208032308E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>339</v>
       </c>
@@ -11796,7 +11827,7 @@
         <v>1.8640488577863788E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>340</v>
       </c>
@@ -11828,7 +11859,7 @@
         <v>8.7431023246660588E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>341</v>
       </c>
@@ -11860,7 +11891,7 @@
         <v>5.0719749826731659E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>342</v>
       </c>
@@ -11892,7 +11923,7 @@
         <v>4.6721664009533224E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>343</v>
       </c>
@@ -11924,7 +11955,7 @@
         <v>2.3668788438574423E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>344</v>
       </c>
@@ -11956,7 +11987,7 @@
         <v>4.0431254462802539E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>345</v>
       </c>
@@ -11988,7 +12019,7 @@
         <v>1.7312916348032848E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>346</v>
       </c>
@@ -12020,7 +12051,7 @@
         <v>2.1751939355897434E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>347</v>
       </c>
@@ -12052,7 +12083,7 @@
         <v>3.9261300894608074E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>348</v>
       </c>
@@ -12084,7 +12115,7 @@
         <v>4.3976965159300593E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>349</v>
       </c>
@@ -12116,7 +12147,7 @@
         <v>1.4598596090911655E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>350</v>
       </c>
@@ -12148,7 +12179,7 @@
         <v>4.1287462449540707E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>351</v>
       </c>
@@ -12180,7 +12211,7 @@
         <v>3.9339427246679499E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>352</v>
       </c>
@@ -12212,7 +12243,7 @@
         <v>2.6763685699922837E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>353</v>
       </c>
@@ -12244,7 +12275,7 @@
         <v>9.9167592108088901E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>354</v>
       </c>
@@ -12276,7 +12307,7 @@
         <v>4.0802047968988744E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>355</v>
       </c>
@@ -12308,7 +12339,7 @@
         <v>3.6621783879851245E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>356</v>
       </c>
@@ -12340,7 +12371,7 @@
         <v>7.2827801997685293E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>357</v>
       </c>
@@ -12372,7 +12403,7 @@
         <v>3.5058029431686514E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>358</v>
       </c>
@@ -12404,7 +12435,7 @@
         <v>5.2128022578577168E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>359</v>
       </c>
@@ -12436,7 +12467,7 @@
         <v>2.9339706654356666E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>360</v>
       </c>
@@ -12468,7 +12499,7 @@
         <v>1.6026977275115314E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>361</v>
       </c>
@@ -12500,7 +12531,7 @@
         <v>2.8266188841735138E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>362</v>
       </c>
@@ -12532,7 +12563,7 @@
         <v>1.5189515912882765E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>363</v>
       </c>
@@ -12564,7 +12595,7 @@
         <v>1.4018937498140415E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>364</v>
       </c>
@@ -12596,7 +12627,7 @@
         <v>1.6128986456266148E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>365</v>
       </c>
@@ -12628,7 +12659,7 @@
         <v>1.5342033332674946E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I96" s="4">
         <f>AVERAGE(I3:I95)</f>
         <v>-1.5068809848481197E-2</v>
@@ -12645,25 +12676,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155:D293"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -12675,7 +12706,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -12702,7 +12733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -12734,7 +12765,7 @@
         <v>4.8856262089576191E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -12766,7 +12797,7 @@
         <v>2.4142045085037037E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -12798,7 +12829,7 @@
         <v>4.7810588492117917E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -12830,7 +12861,7 @@
         <v>1.5861031833906684E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -12862,7 +12893,7 @@
         <v>3.7485865331115436E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -12894,7 +12925,7 @@
         <v>7.3905297609441305E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -12926,7 +12957,7 @@
         <v>1.7943002903756586E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -12958,7 +12989,7 @@
         <v>3.2272729809513998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -12990,7 +13021,7 @@
         <v>1.424651041561101E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -13010,7 +13041,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -13042,7 +13073,7 @@
         <v>4.0523002432171988E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -13074,7 +13105,7 @@
         <v>3.2643222408692926E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -13106,7 +13137,7 @@
         <v>2.1658112037009611E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -13138,7 +13169,7 @@
         <v>2.3247417795296012E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -13170,7 +13201,7 @@
         <v>5.0522241432709954E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -13202,7 +13233,7 @@
         <v>1.335511270115647E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -13234,7 +13265,7 @@
         <v>2.2783917077046523E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -13266,7 +13297,7 @@
         <v>4.8186141210343751E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -13298,7 +13329,7 @@
         <v>5.4262699079143634E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -13330,7 +13361,7 @@
         <v>4.1589621887220346E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -13362,7 +13393,7 @@
         <v>8.5487405733033303E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -13394,7 +13425,7 @@
         <v>5.2459447496141128E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -13426,7 +13457,7 @@
         <v>3.32111380465131E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -13458,7 +13489,7 @@
         <v>7.9329301453054599E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -13490,7 +13521,7 @@
         <v>1.4464186019592111E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -13522,7 +13553,7 @@
         <v>2.790073691865535E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -13554,7 +13585,7 @@
         <v>1.3804180184612607E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -13586,7 +13617,7 @@
         <v>1.9561106213054489E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -13618,7 +13649,7 @@
         <v>2.4074724091855796E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -13650,7 +13681,7 @@
         <v>3.1288339309864133E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -13682,7 +13713,7 @@
         <v>7.5955312711262204E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -13714,7 +13745,7 @@
         <v>6.0042664375141407E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -13746,7 +13777,7 @@
         <v>3.6346522178228799E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -13778,7 +13809,7 @@
         <v>1.1075398103290007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -13810,7 +13841,7 @@
         <v>1.6892890461779549E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -13842,7 +13873,7 @@
         <v>3.3601276084260327E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -13874,7 +13905,7 @@
         <v>6.6285796201949534E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -13906,7 +13937,7 @@
         <v>2.9072005513230782E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -13938,7 +13969,7 @@
         <v>9.9489842614921848E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -13970,7 +14001,7 @@
         <v>5.2599659900921698E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -14002,7 +14033,7 @@
         <v>2.1559008884291304E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -14034,7 +14065,7 @@
         <v>5.3787056006550912E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -14066,7 +14097,7 @@
         <v>1.9737194863558443E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -14098,7 +14129,7 @@
         <v>3.8056181782113896E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -14130,7 +14161,7 @@
         <v>3.8376576484888798E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -14162,7 +14193,7 @@
         <v>0.12118817212908023</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -14194,7 +14225,7 @@
         <v>8.9830764782912242E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -14226,7 +14257,7 @@
         <v>9.7918755959854054E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -14258,7 +14289,7 @@
         <v>7.5830106279297593E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -14290,7 +14321,7 @@
         <v>6.5725936939315929E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -14322,7 +14353,7 @@
         <v>4.9450150860884785E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -14354,7 +14385,7 @@
         <v>7.2514057755884875E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -14386,7 +14417,7 @@
         <v>7.6583174283770983E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -14418,7 +14449,7 @@
         <v>6.9549495717024512E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -14450,7 +14481,7 @@
         <v>6.4246948750097718E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -14482,7 +14513,7 @@
         <v>7.2588735503728435E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -14514,7 +14545,7 @@
         <v>6.9344083153111025E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -14546,7 +14577,7 @@
         <v>6.7558951254764438E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -14578,7 +14609,7 @@
         <v>4.760377773807456E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -14610,7 +14641,7 @@
         <v>8.0649136413801392E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -14630,7 +14661,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -14662,7 +14693,7 @@
         <v>5.7550248156731779E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -14694,7 +14725,7 @@
         <v>5.9714418694683649E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -14726,7 +14757,7 @@
         <v>9.7421332713675451E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -14758,7 +14789,7 @@
         <v>0.10361707999825702</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -14790,7 +14821,7 @@
         <v>9.0253859675618303E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -14822,7 +14853,7 @@
         <v>0.10975174679730607</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -14854,7 +14885,7 @@
         <v>6.6828923823029643E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -14886,7 +14917,7 @@
         <v>5.7514038954734698E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -14918,7 +14949,7 @@
         <v>9.3717982176116169E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -14950,7 +14981,7 @@
         <v>6.2605320915960216E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -14982,7 +15013,7 @@
         <v>3.3827719299721913E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -15014,7 +15045,7 @@
         <v>4.04130037985546E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -15046,7 +15077,7 @@
         <v>0.10528137186768934</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -15078,7 +15109,7 @@
         <v>6.023638688927628E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -15110,7 +15141,7 @@
         <v>5.347270121117078E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -15142,7 +15173,7 @@
         <v>6.1557528495924198E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -15174,7 +15205,7 @@
         <v>7.2884744317046155E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -15206,7 +15237,7 @@
         <v>4.3915583685283338E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -15238,7 +15269,7 @@
         <v>6.7989538030908112E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -15270,7 +15301,7 @@
         <v>7.7920093204494084E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -15302,7 +15333,7 @@
         <v>6.256333242810562E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -15334,7 +15365,7 @@
         <v>8.1337841121843113E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -15366,7 +15397,7 @@
         <v>0.11352196377438994</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -15398,7 +15429,7 @@
         <v>9.3222920744699636E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -15430,7 +15461,7 @@
         <v>5.2690203149157726E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -15462,7 +15493,7 @@
         <v>3.4514271444961143E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -15494,7 +15525,7 @@
         <v>3.9615240555017792E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -15526,7 +15557,7 @@
         <v>5.5655027043779635E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -15558,7 +15589,7 @@
         <v>7.6377124192433851E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -15590,7 +15621,7 @@
         <v>7.6709209454430813E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -15622,7 +15653,7 @@
         <v>0.10182745555548374</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -15654,7 +15685,7 @@
         <v>8.0210092900078481E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -15686,7 +15717,7 @@
         <v>2.6808854220755789E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -15718,7 +15749,7 @@
         <v>6.4342094171202846E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -15750,7 +15781,7 @@
         <v>1.4368828010916778E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -15782,7 +15813,7 @@
         <v>7.7455716946433883E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -15814,7 +15845,7 @@
         <v>5.2607911706580752E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -15846,7 +15877,7 @@
         <v>5.2386991177119181E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -15878,7 +15909,7 @@
         <v>6.4750189651931078E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -15910,7 +15941,7 @@
         <v>4.9219458645851158E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -15942,7 +15973,7 @@
         <v>4.4084913914432144E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -15974,7 +16005,7 @@
         <v>2.8834328778395684E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -16006,7 +16037,7 @@
         <v>3.4028845367470612E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -16038,7 +16069,7 @@
         <v>7.619047989203534E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -16070,7 +16101,7 @@
         <v>3.8974493319020469E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -16102,7 +16133,7 @@
         <v>2.061615782060221E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -16134,7 +16165,7 @@
         <v>9.5027538786286864E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -16166,7 +16197,7 @@
         <v>5.0095956524381369E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -16198,7 +16229,7 @@
         <v>8.1351825701353422E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -16230,7 +16261,7 @@
         <v>5.4324487264732484E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -16262,7 +16293,7 @@
         <v>4.4322562273685848E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -16294,7 +16325,7 @@
         <v>2.7750677951642898E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -16326,7 +16357,7 @@
         <v>2.141323179848669E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -16358,7 +16389,7 @@
         <v>5.8582009527466297E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -16390,7 +16421,7 @@
         <v>3.3153122650081699E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -16422,7 +16453,7 @@
         <v>7.4672195293633004E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -16454,7 +16485,7 @@
         <v>2.525699546721849E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -16486,7 +16517,7 @@
         <v>3.0598296310449549E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -16518,7 +16549,7 @@
         <v>0.13565887916346231</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -16550,7 +16581,7 @@
         <v>0.1106381799393564</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -16582,7 +16613,7 @@
         <v>1.4356065005930582E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -16614,7 +16645,7 @@
         <v>7.1041667037087461E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -16646,7 +16677,7 @@
         <v>8.8455352451492095E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -16678,7 +16709,7 @@
         <v>6.2841762844642782E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -16710,7 +16741,7 @@
         <v>6.7002076688985557E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -16742,7 +16773,7 @@
         <v>0.1069139917252267</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -16774,7 +16805,7 @@
         <v>5.866123471696983E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -16806,7 +16837,7 @@
         <v>7.2816789347818101E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -16838,7 +16869,7 @@
         <v>6.6966802261946332E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -16870,7 +16901,7 @@
         <v>9.9890539698232056E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -16902,7 +16933,7 @@
         <v>5.3382895047277133E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -16934,7 +16965,7 @@
         <v>3.0695873076416295E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -16966,7 +16997,7 @@
         <v>7.335238410293822E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -16998,7 +17029,7 @@
         <v>6.9612304089779226E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -17030,7 +17061,7 @@
         <v>0.10877339477546326</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -17062,7 +17093,7 @@
         <v>4.404254165737527E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -17094,7 +17125,7 @@
         <v>3.8482410321115226E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -17126,7 +17157,7 @@
         <v>5.4646962085140235E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -17158,7 +17189,7 @@
         <v>6.5470309338228602E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -17190,7 +17221,7 @@
         <v>4.9807893975287468E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -17222,7 +17253,7 @@
         <v>5.9227125887703271E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -17254,7 +17285,7 @@
         <v>7.4198886009643028E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -17286,7 +17317,7 @@
         <v>9.0186753449982476E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -17318,7 +17349,7 @@
         <v>0.10437262330377685</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -17350,7 +17381,7 @@
         <v>5.7783065176385706E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -17382,7 +17413,7 @@
         <v>6.7393986849305546E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -17414,7 +17445,7 @@
         <v>5.9488180765698152E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -17434,7 +17465,7 @@
       </c>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -17454,7 +17485,7 @@
       </c>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -17474,7 +17505,7 @@
       </c>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -17494,7 +17525,7 @@
       </c>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -17526,7 +17557,7 @@
         <v>8.6957265589294813E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -17558,7 +17589,7 @@
         <v>7.5686527205605772E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -17590,7 +17621,7 @@
         <v>8.4425030250525362E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -17622,7 +17653,7 @@
         <v>6.0872166110176457E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -17654,7 +17685,7 @@
         <v>9.7136590504878773E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -17686,7 +17717,7 @@
         <v>8.9248155602771148E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -17718,7 +17749,7 @@
         <v>8.5726845291352549E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -17750,7 +17781,7 @@
         <v>0.11401701990107459</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -17782,7 +17813,7 @@
         <v>8.2511823618199948E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -17814,7 +17845,7 @@
         <v>8.9490846358841108E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -17846,7 +17877,7 @@
         <v>0.11000099077663186</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -17878,7 +17909,7 @@
         <v>6.3486851281010726E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -17910,7 +17941,7 @@
         <v>2.5951508063502986E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -17942,7 +17973,7 @@
         <v>6.9165839586389111E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -17974,7 +18005,7 @@
         <v>4.3638028701827265E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -18006,7 +18037,7 @@
         <v>8.7620248809484297E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -18038,7 +18069,7 @@
         <v>5.2780882690660558E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -18070,7 +18101,7 @@
         <v>0.13418255250010466</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -18102,7 +18133,7 @@
         <v>8.6685611614036068E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -18134,7 +18165,7 @@
         <v>5.6630561479487231E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -18166,7 +18197,7 @@
         <v>6.8208561937001616E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -18198,7 +18229,7 @@
         <v>7.5235344736130721E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -18230,7 +18261,7 @@
         <v>8.7603441212587133E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -18262,7 +18293,7 @@
         <v>5.3955069114115115E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -18294,7 +18325,7 @@
         <v>7.8977572948274274E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -18326,7 +18357,7 @@
         <v>5.4042672768381456E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -18358,7 +18389,7 @@
         <v>4.6686160532729497E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -18390,7 +18421,7 @@
         <v>5.1313694341728361E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -18422,7 +18453,7 @@
         <v>5.1614361827622655E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -18454,7 +18485,7 @@
         <v>8.1356927096433718E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -18486,7 +18517,7 @@
         <v>6.2347256060063833E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -18518,7 +18549,7 @@
         <v>6.7060513361867927E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -18550,7 +18581,7 @@
         <v>6.5705310955185822E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -18582,7 +18613,7 @@
         <v>4.7762801236223174E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -18614,7 +18645,7 @@
         <v>2.9312114721310265E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -18646,7 +18677,7 @@
         <v>8.4766003627841854E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -18678,7 +18709,7 @@
         <v>6.9288795442355292E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -18710,7 +18741,7 @@
         <v>9.4859657560784516E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -18742,7 +18773,7 @@
         <v>7.2498758983733133E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -18774,7 +18805,7 @@
         <v>0.1150942382924507</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -18806,7 +18837,7 @@
         <v>0.10826011938480865</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -18838,7 +18869,7 @@
         <v>0.1840406442268919</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -18870,7 +18901,7 @@
         <v>0.10611825300833852</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -18902,7 +18933,7 @@
         <v>0.14113157374531046</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -18934,7 +18965,7 @@
         <v>0.13335739702231869</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -18966,7 +18997,7 @@
         <v>0.13079731039765541</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -18998,7 +19029,7 @@
         <v>0.12865756980802473</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -19030,7 +19061,7 @@
         <v>6.736395107430207E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -19062,7 +19093,7 @@
         <v>0.1381484837398653</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -19094,7 +19125,7 @@
         <v>0.11263709759388786</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -19126,7 +19157,7 @@
         <v>0.10668553086759393</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -19158,7 +19189,7 @@
         <v>0.10985317951458663</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -19190,7 +19221,7 @@
         <v>0.13261641496243839</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -19222,7 +19253,7 @@
         <v>0.12366106634828224</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -19254,7 +19285,7 @@
         <v>0.12306104248198665</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -19286,7 +19317,7 @@
         <v>0.12759582935805114</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -19318,7 +19349,7 @@
         <v>0.12124653569742261</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -19350,7 +19381,7 @@
         <v>0.10034223658748115</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -19382,7 +19413,7 @@
         <v>0.10412700002810919</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -19414,7 +19445,7 @@
         <v>0.10755006687204813</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -19446,7 +19477,7 @@
         <v>0.1191782275945788</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -19478,7 +19509,7 @@
         <v>0.10210332012950715</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -19510,7 +19541,7 @@
         <v>9.7985305100869446E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -19542,7 +19573,7 @@
         <v>0.10930019431964477</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -19574,7 +19605,7 @@
         <v>0.10176559216995901</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -19606,7 +19637,7 @@
         <v>0.12488099815382994</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -19638,7 +19669,7 @@
         <v>7.5660917255264096E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -19670,7 +19701,7 @@
         <v>7.6666367346577419E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -19702,7 +19733,7 @@
         <v>0.11347500052347791</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -19734,7 +19765,7 @@
         <v>0.1134473911495404</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -19766,7 +19797,7 @@
         <v>0.12709437001322213</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -19798,7 +19829,7 @@
         <v>0.14592070952899455</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -19830,7 +19861,7 @@
         <v>0.1353427844512253</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -19862,7 +19893,7 @@
         <v>0.17437063410731968</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -19894,7 +19925,7 @@
         <v>0.15713382855033303</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -19926,7 +19957,7 @@
         <v>0.12983064127000254</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -19958,7 +19989,7 @@
         <v>9.3790981860447251E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -19990,7 +20021,7 @@
         <v>0.1241238791972758</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -20022,7 +20053,7 @@
         <v>9.2309471943771093E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -20054,7 +20085,7 @@
         <v>8.1735867594705719E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -20086,7 +20117,7 @@
         <v>0.13658133073563586</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -20118,7 +20149,7 @@
         <v>0.11796933581920131</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -20150,7 +20181,7 @@
         <v>0.11644640052832669</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -20182,7 +20213,7 @@
         <v>0.11502223493064941</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -20214,7 +20245,7 @@
         <v>0.134814970940034</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -20246,7 +20277,7 @@
         <v>0.10532503167739754</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -20278,7 +20309,7 @@
         <v>0.14197500173172081</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -20310,7 +20341,7 @@
         <v>0.16682096281242373</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -20342,7 +20373,7 @@
         <v>0.13074600697747532</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -20374,7 +20405,7 @@
         <v>0.13115880339794911</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -20406,7 +20437,7 @@
         <v>0.1120452927245611</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -20438,7 +20469,7 @@
         <v>0.12012803959224774</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -20470,7 +20501,7 @@
         <v>0.13917890525395715</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -20502,7 +20533,7 @@
         <v>0.10382924890540264</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -20534,7 +20565,7 @@
         <v>0.10464943741960174</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -20566,7 +20597,7 @@
         <v>8.7508071384448508E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -20598,7 +20629,7 @@
         <v>8.3693888292114355E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -20630,7 +20661,7 @@
         <v>0.1307044844175666</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -20662,7 +20693,7 @@
         <v>0.15817574764100129</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -20694,7 +20725,7 @@
         <v>7.455015501383E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -20726,7 +20757,7 @@
         <v>0.10560141444238343</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -20758,7 +20789,7 @@
         <v>9.7150664439720022E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -20790,7 +20821,7 @@
         <v>0.14582582272505179</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -20822,7 +20853,7 @@
         <v>0.13731805070726527</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -20854,7 +20885,7 @@
         <v>9.7487029212569382E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -20886,7 +20917,7 @@
         <v>9.8016213916258893E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -20918,7 +20949,7 @@
         <v>0.10468003959265694</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -20950,7 +20981,7 @@
         <v>0.10261038887857483</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -20982,7 +21013,7 @@
         <v>9.8823979891276559E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -21014,7 +21045,7 @@
         <v>0.11490060647192277</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -21046,7 +21077,7 @@
         <v>0.11634203682597295</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -21078,7 +21109,7 @@
         <v>0.1264990675928869</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -21110,7 +21141,7 @@
         <v>0.1016305837942658</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -21142,7 +21173,7 @@
         <v>0.11627677715128269</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -21174,7 +21205,7 @@
         <v>8.3236624935163372E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -21206,7 +21237,7 @@
         <v>0.11837080565393637</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -21238,7 +21269,7 @@
         <v>0.11416026720056852</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -21270,7 +21301,7 @@
         <v>0.10542005744313483</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -21302,7 +21333,7 @@
         <v>9.3584913356206681E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -21334,7 +21365,7 @@
         <v>0.11672202307098979</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -21366,7 +21397,7 @@
         <v>0.14139260008093493</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -21398,7 +21429,7 @@
         <v>0.14412962329571913</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -21430,7 +21461,7 @@
         <v>0.12034659907527129</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -21462,7 +21493,7 @@
         <v>8.9577936249025839E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -21494,7 +21525,7 @@
         <v>0.10837684538481385</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -21526,7 +21557,7 @@
         <v>0.10733160743873248</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -21558,7 +21589,7 @@
         <v>0.12218101494160284</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -21590,7 +21621,7 @@
         <v>0.10071845470293918</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -21622,7 +21653,7 @@
         <v>9.9191167720680054E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -21654,7 +21685,7 @@
         <v>8.5923468572588396E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -21686,7 +21717,7 @@
         <v>0.10083441912131522</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -21718,7 +21749,7 @@
         <v>0.10453551592999524</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -21750,7 +21781,7 @@
         <v>9.3157069120502034E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -21782,7 +21813,7 @@
         <v>0.10199340027218692</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -21814,7 +21845,7 @@
         <v>8.0996367617741885E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -21846,7 +21877,7 @@
         <v>8.2293599362875711E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -21878,7 +21909,7 @@
         <v>8.1913600635018763E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -21910,7 +21941,7 @@
         <v>7.7526561569799382E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -21942,295 +21973,295 @@
         <v>7.8446578754269927E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
